--- a/Excels/Random Customer Info.xlsx
+++ b/Excels/Random Customer Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="532">
   <si>
     <t>name</t>
   </si>
@@ -54,232 +54,46 @@
     <t>f</t>
   </si>
   <si>
-    <t>Jana</t>
-  </si>
-  <si>
-    <t>11/03/1997</t>
-  </si>
-  <si>
-    <t>9 Cottonwood Drive</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>jstallworthy1@amazonaws.com</t>
-  </si>
-  <si>
-    <t>sNnW0cEuPZM1</t>
-  </si>
-  <si>
-    <t>Austen</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>07/08/1957</t>
-  </si>
-  <si>
-    <t>5 Main Lane</t>
-  </si>
-  <si>
-    <t>Decatur</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>acampsall2@google.com.au</t>
-  </si>
-  <si>
-    <t>eX8QJdLIJxi</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>02/24/1959</t>
-  </si>
-  <si>
-    <t>820 Vahlen Trail</t>
-  </si>
-  <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t>erump3@cocolog-nifty.com</t>
-  </si>
-  <si>
-    <t>TW8sC4X7</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Lefty</t>
-  </si>
-  <si>
-    <t>02/29/1984</t>
-  </si>
-  <si>
-    <t>2 4th Alley</t>
-  </si>
-  <si>
-    <t>Glendale</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
-    <t>lrabier6@miibeian.gov.cn</t>
-  </si>
-  <si>
-    <t>dq9uLzfT02T</t>
-  </si>
-  <si>
-    <t>Douglass</t>
-  </si>
-  <si>
-    <t>05/08/1953</t>
-  </si>
-  <si>
-    <t>36625 Canary Lane</t>
-  </si>
-  <si>
-    <t>Panama City</t>
-  </si>
-  <si>
-    <t>dmishaw7@timesonline.co.uk</t>
-  </si>
-  <si>
-    <t>YqQuOH2EKS</t>
-  </si>
-  <si>
-    <t>Jone</t>
-  </si>
-  <si>
-    <t>08/06/1964</t>
-  </si>
-  <si>
-    <t>7 Loeprich Point</t>
-  </si>
-  <si>
     <t>Minneapolis</t>
   </si>
   <si>
     <t>Minnesota</t>
   </si>
   <si>
-    <t>jrevie8@jugem.jp</t>
-  </si>
-  <si>
-    <t>KyWwF8M</t>
-  </si>
-  <si>
-    <t>Leonie</t>
-  </si>
-  <si>
-    <t>05/04/1990</t>
-  </si>
-  <si>
-    <t>2 Lakeland Court</t>
-  </si>
-  <si>
-    <t>Lancaster</t>
-  </si>
-  <si>
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>lmartini9@joomla.org</t>
-  </si>
-  <si>
-    <t>GT2UyT</t>
-  </si>
-  <si>
-    <t>Lillis</t>
-  </si>
-  <si>
-    <t>05/07/1953</t>
-  </si>
-  <si>
-    <t>270 Burning Wood Court</t>
-  </si>
-  <si>
     <t>New Orleans</t>
   </si>
   <si>
     <t>Louisiana</t>
   </si>
   <si>
-    <t>llutwidgea@gravatar.com</t>
-  </si>
-  <si>
-    <t>63eFg9sg</t>
-  </si>
-  <si>
-    <t>Jareb</t>
-  </si>
-  <si>
-    <t>12/07/1950</t>
-  </si>
-  <si>
-    <t>43908 Granby Circle</t>
-  </si>
-  <si>
     <t>Raleigh</t>
   </si>
   <si>
     <t>North Carolina</t>
-  </si>
-  <si>
-    <t>jwhittockb@mozilla.org</t>
-  </si>
-  <si>
-    <t>CASTe6UcZMt</t>
-  </si>
-  <si>
-    <t>Thurstan</t>
-  </si>
-  <si>
-    <t>08/03/1983</t>
-  </si>
-  <si>
-    <t>76 Crowley Circle</t>
-  </si>
-  <si>
-    <t>Oakland</t>
-  </si>
-  <si>
-    <t>treadwoodc@twitter.com</t>
-  </si>
-  <si>
-    <t>S8sjNMoOP7</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>10/01/1984</t>
-  </si>
-  <si>
-    <t>0 Moulton Court</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>cbarnardod@state.tx.us</t>
-  </si>
-  <si>
-    <t>e7enXPEjjhj</t>
   </si>
   <si>
     <t>Aimil</t>
@@ -2118,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J7"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2168,376 +1982,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>982939</v>
-      </c>
-      <c r="H3">
-        <v>7132391778</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>827514</v>
-      </c>
-      <c r="H4">
-        <v>7708942888</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>999015</v>
-      </c>
-      <c r="H5">
-        <v>2291683932</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>503290</v>
-      </c>
-      <c r="H8">
-        <v>8182802348</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>381483</v>
-      </c>
-      <c r="H9">
-        <v>8504180608</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10">
-        <v>484883</v>
-      </c>
-      <c r="H10">
-        <v>6519226669</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>539893</v>
-      </c>
-      <c r="H11">
-        <v>7179844136</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12">
-        <v>280734</v>
-      </c>
-      <c r="H12">
-        <v>5046565062</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13">
-        <v>824066</v>
-      </c>
-      <c r="H13">
-        <v>9193905338</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14">
-        <v>750684</v>
-      </c>
-      <c r="H14">
-        <v>4154680702</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>299893</v>
-      </c>
-      <c r="H15">
-        <v>9798842872</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>863266</v>
@@ -2546,30 +2008,30 @@
         <v>4806825343</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>606461</v>
@@ -2578,30 +2040,30 @@
         <v>7137307607</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>333478</v>
@@ -2610,30 +2072,30 @@
         <v>6171594719</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <v>287496</v>
@@ -2642,30 +2104,30 @@
         <v>4075931450</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>326575</v>
@@ -2674,30 +2136,30 @@
         <v>4088566411</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>486858</v>
@@ -2706,30 +2168,30 @@
         <v>5615983448</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <v>330444</v>
@@ -2738,30 +2200,30 @@
         <v>3052970301</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="G23">
         <v>930464</v>
@@ -2770,30 +2232,30 @@
         <v>3091156270</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G24">
         <v>512252</v>
@@ -2802,30 +2264,30 @@
         <v>8058754226</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="G25">
         <v>233043</v>
@@ -2834,30 +2296,30 @@
         <v>8439965660</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G26">
         <v>582791</v>
@@ -2866,30 +2328,30 @@
         <v>9103890692</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="G27">
         <v>418565</v>
@@ -2898,30 +2360,30 @@
         <v>2081625100</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="G28">
         <v>704438</v>
@@ -2930,30 +2392,30 @@
         <v>2021767869</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G29">
         <v>492665</v>
@@ -2962,30 +2424,30 @@
         <v>6125467690</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="J29" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="G30">
         <v>579588</v>
@@ -2994,30 +2456,30 @@
         <v>8167322778</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>533566</v>
@@ -3026,30 +2488,30 @@
         <v>9722884031</v>
       </c>
       <c r="I31" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="J31" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G32">
         <v>717033</v>
@@ -3058,30 +2520,30 @@
         <v>2164081982</v>
       </c>
       <c r="I32" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="J32" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="G33">
         <v>546774</v>
@@ -3090,30 +2552,30 @@
         <v>2057730130</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="J33" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G34">
         <v>736038</v>
@@ -3122,30 +2584,30 @@
         <v>2255137586</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="J34" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>355613</v>
@@ -3154,30 +2616,30 @@
         <v>7138288758</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="G36">
         <v>394816</v>
@@ -3186,30 +2648,30 @@
         <v>9016309404</v>
       </c>
       <c r="I36" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="J36" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="G37">
         <v>792188</v>
@@ -3218,30 +2680,30 @@
         <v>6183810222</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="J37" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G38">
         <v>690428</v>
@@ -3250,30 +2712,30 @@
         <v>6194180164</v>
       </c>
       <c r="I38" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G39">
         <v>931279</v>
@@ -3282,30 +2744,30 @@
         <v>5042437472</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="J39" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G40">
         <v>502974</v>
@@ -3314,30 +2776,30 @@
         <v>9199821152</v>
       </c>
       <c r="I40" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="J40" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G41">
         <v>436053</v>
@@ -3346,30 +2808,30 @@
         <v>6518460229</v>
       </c>
       <c r="I41" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G42">
         <v>923678</v>
@@ -3378,30 +2840,30 @@
         <v>9165699739</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="J42" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="E43" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G43">
         <v>945738</v>
@@ -3410,30 +2872,30 @@
         <v>6198538736</v>
       </c>
       <c r="I43" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="J43" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G44">
         <v>189439</v>
@@ -3442,30 +2904,30 @@
         <v>9522542185</v>
       </c>
       <c r="I44" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="J44" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G45">
         <v>957926</v>
@@ -3474,30 +2936,30 @@
         <v>9107239635</v>
       </c>
       <c r="I45" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="J45" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="G46">
         <v>878395</v>
@@ -3506,30 +2968,30 @@
         <v>3015046400</v>
       </c>
       <c r="I46" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="G47">
         <v>152837</v>
@@ -3538,30 +3000,30 @@
         <v>8167790127</v>
       </c>
       <c r="I47" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J47" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="E48" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="G48">
         <v>781306</v>
@@ -3570,30 +3032,30 @@
         <v>4437701059</v>
       </c>
       <c r="I48" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="J48" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="G49">
         <v>239171</v>
@@ -3602,30 +3064,30 @@
         <v>3159081847</v>
       </c>
       <c r="I49" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="J49" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G50">
         <v>172951</v>
@@ -3634,30 +3096,30 @@
         <v>9542530328</v>
       </c>
       <c r="I50" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="J50" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="G51">
         <v>901864</v>
@@ -3666,30 +3128,30 @@
         <v>6161346814</v>
       </c>
       <c r="I51" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="J51" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="E52" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>838597</v>
@@ -3698,30 +3160,30 @@
         <v>9031492059</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="J52" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="E53" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>409071</v>
@@ -3730,30 +3192,30 @@
         <v>5123403535</v>
       </c>
       <c r="I53" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="J53" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G54">
         <v>186215</v>
@@ -3762,30 +3224,30 @@
         <v>9167732618</v>
       </c>
       <c r="I54" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="J54" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>701107</v>
@@ -3794,30 +3256,30 @@
         <v>8599195134</v>
       </c>
       <c r="I55" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="J55" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="D56" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G56">
         <v>213614</v>
@@ -3826,30 +3288,30 @@
         <v>7703623998</v>
       </c>
       <c r="I56" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="J56" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="G57">
         <v>849154</v>
@@ -3858,30 +3320,30 @@
         <v>2129333034</v>
       </c>
       <c r="I57" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="J57" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="D58" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="F58" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G58">
         <v>816804</v>
@@ -3890,30 +3352,30 @@
         <v>5136511672</v>
       </c>
       <c r="I58" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="J58" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G59">
         <v>562038</v>
@@ -3922,30 +3384,30 @@
         <v>9049360235</v>
       </c>
       <c r="I59" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="J59" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="D60" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="E60" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>651953</v>
@@ -3954,30 +3416,30 @@
         <v>8144865382</v>
       </c>
       <c r="I60" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="J60" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="D61" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G61">
         <v>414152</v>
@@ -3986,30 +3448,30 @@
         <v>7139627564</v>
       </c>
       <c r="I61" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="J61" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="E62" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G62">
         <v>402714</v>
@@ -4018,30 +3480,30 @@
         <v>8062820561</v>
       </c>
       <c r="I62" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="J62" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="D63" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G63">
         <v>111555</v>
@@ -4050,30 +3512,30 @@
         <v>6125129664</v>
       </c>
       <c r="I63" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="J63" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="D64" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="E64" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G64">
         <v>567852</v>
@@ -4082,30 +3544,30 @@
         <v>8186995714</v>
       </c>
       <c r="I64" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="J64" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="D65" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G65">
         <v>329611</v>
@@ -4114,30 +3576,30 @@
         <v>2251374766</v>
       </c>
       <c r="I65" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="J65" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F66" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="G66">
         <v>332513</v>
@@ -4146,30 +3608,30 @@
         <v>8166287598</v>
       </c>
       <c r="I66" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="J66" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="D67" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="E67" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <v>836583</v>
@@ -4178,30 +3640,30 @@
         <v>8509162259</v>
       </c>
       <c r="I67" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="J67" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="D68" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="E68" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G68">
         <v>328313</v>
@@ -4210,30 +3672,30 @@
         <v>3184004961</v>
       </c>
       <c r="I68" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="J68" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="D69" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G69">
         <v>162475</v>
@@ -4242,30 +3704,30 @@
         <v>8597183222</v>
       </c>
       <c r="I69" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="J69" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="D70" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="E70" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="F70" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="G70">
         <v>369249</v>
@@ -4274,30 +3736,30 @@
         <v>8168874274</v>
       </c>
       <c r="I70" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="J70" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="D71" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="E71" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G71">
         <v>596281</v>
@@ -4306,30 +3768,30 @@
         <v>7061169978</v>
       </c>
       <c r="I71" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="J71" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="D72" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="E72" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G72">
         <v>196674</v>
@@ -4338,30 +3800,30 @@
         <v>4155837867</v>
       </c>
       <c r="I72" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="J72" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="D73" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G73">
         <v>908339</v>
@@ -4370,30 +3832,30 @@
         <v>9152487232</v>
       </c>
       <c r="I73" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="J73" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="D74" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="E74" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G74">
         <v>490944</v>
@@ -4402,30 +3864,30 @@
         <v>4076670892</v>
       </c>
       <c r="I74" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="J74" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="D75" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="E75" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="G75">
         <v>226927</v>
@@ -4434,30 +3896,30 @@
         <v>3162292032</v>
       </c>
       <c r="I75" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="J75" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="D76" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="E76" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="G76">
         <v>281265</v>
@@ -4466,30 +3928,30 @@
         <v>3169599276</v>
       </c>
       <c r="I76" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="J76" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="D77" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="E77" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G77">
         <v>609541</v>
@@ -4498,30 +3960,30 @@
         <v>4127589982</v>
       </c>
       <c r="I77" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="J77" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="D78" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="E78" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="F78" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="G78">
         <v>693267</v>
@@ -4530,30 +3992,30 @@
         <v>7029244722</v>
       </c>
       <c r="I78" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="J78" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="F79" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="G79">
         <v>535047</v>
@@ -4562,30 +4024,30 @@
         <v>6168155826</v>
       </c>
       <c r="I79" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="J79" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="D80" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G80">
         <v>522779</v>
@@ -4594,30 +4056,30 @@
         <v>5122910242</v>
       </c>
       <c r="I80" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="J80" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="D81" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G81">
         <v>594528</v>
@@ -4626,30 +4088,30 @@
         <v>5129665225</v>
       </c>
       <c r="I81" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="J81" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="E82" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="F82" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="G82">
         <v>865812</v>
@@ -4658,30 +4120,30 @@
         <v>4232551614</v>
       </c>
       <c r="I82" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="J82" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="D83" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="E83" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="F83" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G83">
         <v>643708</v>
@@ -4690,30 +4152,30 @@
         <v>3309909816</v>
       </c>
       <c r="I83" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="J83" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="D84" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="E84" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="F84" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="G84">
         <v>107812</v>
@@ -4722,30 +4184,30 @@
         <v>2035568520</v>
       </c>
       <c r="I84" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="J84" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="D85" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="E85" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G85">
         <v>909749</v>
@@ -4754,30 +4216,30 @@
         <v>2145970865</v>
       </c>
       <c r="I85" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="J85" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="D86" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="E86" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G86">
         <v>216821</v>
@@ -4786,30 +4248,30 @@
         <v>9198193452</v>
       </c>
       <c r="I86" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="J86" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="D87" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="E87" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G87">
         <v>706269</v>
@@ -4818,30 +4280,30 @@
         <v>7864854559</v>
       </c>
       <c r="I87" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="J87" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="D88" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="E88" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G88">
         <v>675696</v>
@@ -4850,30 +4312,30 @@
         <v>9156360193</v>
       </c>
       <c r="I88" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="J88" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="D89" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="E89" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G89">
         <v>762149</v>
@@ -4882,30 +4344,30 @@
         <v>6786056832</v>
       </c>
       <c r="I89" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="J89" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="D90" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="E90" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="G90">
         <v>992355</v>
@@ -4914,30 +4376,30 @@
         <v>2539827235</v>
       </c>
       <c r="I90" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="J90" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="D91" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="E91" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="F91" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="G91">
         <v>982868</v>
@@ -4946,30 +4408,30 @@
         <v>2032984571</v>
       </c>
       <c r="I91" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="J91" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="D92" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="E92" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G92">
         <v>494810</v>
@@ -4978,30 +4440,30 @@
         <v>7064909878</v>
       </c>
       <c r="I92" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="J92" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="D93" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="E93" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G93">
         <v>720361</v>
@@ -5010,30 +4472,30 @@
         <v>9167004483</v>
       </c>
       <c r="I93" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="J93" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="D94" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="E94" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="F94" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="G94">
         <v>151676</v>
@@ -5042,30 +4504,30 @@
         <v>5732908143</v>
       </c>
       <c r="I94" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="J94" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="D95" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="E95" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="F95" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G95">
         <v>270516</v>
@@ -5074,30 +4536,30 @@
         <v>3303509249</v>
       </c>
       <c r="I95" t="s">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="J95" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="D96" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="E96" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G96">
         <v>218006</v>
@@ -5106,30 +4568,30 @@
         <v>7723756514</v>
       </c>
       <c r="I96" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="J96" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="D97" t="s">
-        <v>566</v>
+        <v>504</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G97">
         <v>873242</v>
@@ -5138,30 +4600,30 @@
         <v>2146070218</v>
       </c>
       <c r="I97" t="s">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="J97" t="s">
-        <v>568</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>569</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>570</v>
+        <v>508</v>
       </c>
       <c r="D98" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="E98" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
       <c r="F98" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
       <c r="G98">
         <v>101336</v>
@@ -5170,30 +4632,30 @@
         <v>9182927162</v>
       </c>
       <c r="I98" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
       <c r="J98" t="s">
-        <v>575</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="D99" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="G99">
         <v>193776</v>
@@ -5202,30 +4664,30 @@
         <v>5859901032</v>
       </c>
       <c r="I99" t="s">
-        <v>579</v>
+        <v>517</v>
       </c>
       <c r="J99" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
       <c r="D100" t="s">
-        <v>583</v>
+        <v>521</v>
       </c>
       <c r="E100" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="F100" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="G100">
         <v>386765</v>
@@ -5234,30 +4696,30 @@
         <v>2409850571</v>
       </c>
       <c r="I100" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="J100" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>587</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
       <c r="D101" t="s">
-        <v>589</v>
+        <v>527</v>
       </c>
       <c r="E101" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
       <c r="F101" t="s">
-        <v>591</v>
+        <v>529</v>
       </c>
       <c r="G101">
         <v>582513</v>
@@ -5266,10 +4728,10 @@
         <v>3197750056</v>
       </c>
       <c r="I101" t="s">
-        <v>592</v>
+        <v>530</v>
       </c>
       <c r="J101" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Random Customer Info.xlsx
+++ b/Excels/Random Customer Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="472">
   <si>
     <t>name</t>
   </si>
@@ -99,190 +99,10 @@
     <t>Aimil</t>
   </si>
   <si>
-    <t>11/04/1963</t>
-  </si>
-  <si>
-    <t>620 Mesta Way</t>
-  </si>
-  <si>
-    <t>Scottsdale</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>amcphatere@github.io</t>
-  </si>
-  <si>
-    <t>4khIDBFT5L</t>
-  </si>
-  <si>
-    <t>Way</t>
-  </si>
-  <si>
-    <t>10/23/1992</t>
-  </si>
-  <si>
-    <t>24 Hoepker Court</t>
-  </si>
-  <si>
-    <t>whambribef@virginia.edu</t>
-  </si>
-  <si>
-    <t>PwEMRLSSRb</t>
-  </si>
-  <si>
-    <t>Michaelina</t>
-  </si>
-  <si>
-    <t>05/23/1975</t>
-  </si>
-  <si>
-    <t>6591 Gateway Park</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>mbaudinsg@plala.or.jp</t>
-  </si>
-  <si>
-    <t>MPu7cgkk</t>
-  </si>
-  <si>
-    <t>Dari</t>
-  </si>
-  <si>
-    <t>12/25/1980</t>
-  </si>
-  <si>
-    <t>06174 Judy Street</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>dheinekeh@mit.edu</t>
-  </si>
-  <si>
-    <t>HlOof3</t>
-  </si>
-  <si>
-    <t>Cordie</t>
-  </si>
-  <si>
-    <t>10/04/1963</t>
-  </si>
-  <si>
-    <t>6623 Manley Junction</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>caubrii@goodreads.com</t>
-  </si>
-  <si>
-    <t>8VG7wGdYampk</t>
-  </si>
-  <si>
-    <t>Judi</t>
-  </si>
-  <si>
-    <t>09/20/1998</t>
-  </si>
-  <si>
-    <t>46 Sachtjen Lane</t>
-  </si>
-  <si>
-    <t>Lake Worth</t>
-  </si>
-  <si>
-    <t>jiskowerj@army.mil</t>
-  </si>
-  <si>
-    <t>eR4AK34</t>
-  </si>
-  <si>
-    <t>Ivette</t>
-  </si>
-  <si>
-    <t>06/02/1991</t>
-  </si>
-  <si>
-    <t>203 Bobwhite Place</t>
-  </si>
-  <si>
     <t>Miami</t>
   </si>
   <si>
-    <t>icluleyk@ucsd.edu</t>
-  </si>
-  <si>
-    <t>2a7yilSRZ</t>
-  </si>
-  <si>
-    <t>Ninnetta</t>
-  </si>
-  <si>
-    <t>07/06/1970</t>
-  </si>
-  <si>
-    <t>22566 Burning Wood Lane</t>
-  </si>
-  <si>
-    <t>Carol Stream</t>
-  </si>
-  <si>
     <t>Illinois</t>
-  </si>
-  <si>
-    <t>nspeightl@flavors.me</t>
-  </si>
-  <si>
-    <t>EaLCe35mxOG</t>
-  </si>
-  <si>
-    <t>Findlay</t>
-  </si>
-  <si>
-    <t>10/01/1972</t>
-  </si>
-  <si>
-    <t>479 Fuller Road</t>
-  </si>
-  <si>
-    <t>Santa Barbara</t>
-  </si>
-  <si>
-    <t>fpelzm@apache.org</t>
-  </si>
-  <si>
-    <t>h2rgWaSiolGl</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>09/21/1962</t>
-  </si>
-  <si>
-    <t>826 4th Street</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>ttinnn@deliciousdays.com</t>
-  </si>
-  <si>
-    <t>C79ubJCcRVj5</t>
   </si>
   <si>
     <t>Sarette</t>
@@ -1932,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J15"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1982,341 +1802,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16">
-        <v>863266</v>
-      </c>
-      <c r="H16">
-        <v>4806825343</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>606461</v>
-      </c>
-      <c r="H17">
-        <v>7137307607</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18">
-        <v>333478</v>
-      </c>
-      <c r="H18">
-        <v>6171594719</v>
-      </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>287496</v>
-      </c>
-      <c r="H19">
-        <v>4075931450</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>326575</v>
-      </c>
-      <c r="H20">
-        <v>4088566411</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>486858</v>
-      </c>
-      <c r="H21">
-        <v>5615983448</v>
-      </c>
-      <c r="I21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>330444</v>
-      </c>
-      <c r="H22">
-        <v>3052970301</v>
-      </c>
-      <c r="I22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23">
-        <v>930464</v>
-      </c>
-      <c r="H23">
-        <v>3091156270</v>
-      </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>512252</v>
-      </c>
-      <c r="H24">
-        <v>8058754226</v>
-      </c>
-      <c r="I24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25">
-        <v>233043</v>
-      </c>
-      <c r="H25">
-        <v>8439965660</v>
-      </c>
-      <c r="I25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -2328,30 +1828,30 @@
         <v>9103890692</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>418565</v>
@@ -2360,30 +1860,30 @@
         <v>2081625100</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="G28">
         <v>704438</v>
@@ -2392,24 +1892,24 @@
         <v>2021767869</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -2424,30 +1924,30 @@
         <v>6125467690</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="G30">
         <v>579588</v>
@@ -2456,27 +1956,27 @@
         <v>8167322778</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -2488,30 +1988,30 @@
         <v>9722884031</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>717033</v>
@@ -2520,30 +2020,30 @@
         <v>2164081982</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="G33">
         <v>546774</v>
@@ -2552,27 +2052,27 @@
         <v>2057730130</v>
       </c>
       <c r="I33" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -2584,24 +2084,24 @@
         <v>2255137586</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -2616,30 +2116,30 @@
         <v>7138288758</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="G36">
         <v>394816</v>
@@ -2648,30 +2148,30 @@
         <v>9016309404</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G37">
         <v>792188</v>
@@ -2680,27 +2180,27 @@
         <v>6183810222</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -2712,24 +2212,24 @@
         <v>6194180164</v>
       </c>
       <c r="I38" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -2744,24 +2244,24 @@
         <v>5042437472</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="J39" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
         <v>23</v>
@@ -2776,27 +2276,27 @@
         <v>9199821152</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -2808,27 +2308,27 @@
         <v>6518460229</v>
       </c>
       <c r="I41" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2840,27 +2340,27 @@
         <v>9165699739</v>
       </c>
       <c r="I42" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2872,27 +2372,27 @@
         <v>6198538736</v>
       </c>
       <c r="I43" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -2904,27 +2404,27 @@
         <v>9522542185</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="J44" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
@@ -2936,30 +2436,30 @@
         <v>9107239635</v>
       </c>
       <c r="I45" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="G46">
         <v>878395</v>
@@ -2968,30 +2468,30 @@
         <v>3015046400</v>
       </c>
       <c r="I46" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="J46" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="G47">
         <v>152837</v>
@@ -3000,30 +2500,30 @@
         <v>8167790127</v>
       </c>
       <c r="I47" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="J47" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="G48">
         <v>781306</v>
@@ -3032,30 +2532,30 @@
         <v>4437701059</v>
       </c>
       <c r="I48" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="G49">
         <v>239171</v>
@@ -3064,27 +2564,27 @@
         <v>3159081847</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="J49" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -3096,30 +2596,30 @@
         <v>9542530328</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="J50" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="G51">
         <v>901864</v>
@@ -3128,27 +2628,27 @@
         <v>6161346814</v>
       </c>
       <c r="I51" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="J51" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -3160,27 +2660,27 @@
         <v>9031492059</v>
       </c>
       <c r="I52" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="J52" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -3192,27 +2692,27 @@
         <v>5123403535</v>
       </c>
       <c r="I53" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="J53" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3224,10 +2724,10 @@
         <v>9167732618</v>
       </c>
       <c r="I54" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="J54" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3238,13 +2738,13 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
@@ -3256,27 +2756,27 @@
         <v>8599195134</v>
       </c>
       <c r="I55" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="J55" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="D56" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -3288,30 +2788,30 @@
         <v>7703623998</v>
       </c>
       <c r="I56" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="J56" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="G57">
         <v>849154</v>
@@ -3320,30 +2820,30 @@
         <v>2129333034</v>
       </c>
       <c r="I57" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="J57" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G58">
         <v>816804</v>
@@ -3352,27 +2852,27 @@
         <v>5136511672</v>
       </c>
       <c r="I58" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="J58" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -3384,27 +2884,27 @@
         <v>9049360235</v>
       </c>
       <c r="I59" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
@@ -3416,24 +2916,24 @@
         <v>8144865382</v>
       </c>
       <c r="I60" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="J60" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -3448,27 +2948,27 @@
         <v>7139627564</v>
       </c>
       <c r="I61" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="J61" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="D62" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -3480,24 +2980,24 @@
         <v>8062820561</v>
       </c>
       <c r="I62" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="J62" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -3512,27 +3012,27 @@
         <v>6125129664</v>
       </c>
       <c r="I63" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="J63" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -3544,27 +3044,27 @@
         <v>8186995714</v>
       </c>
       <c r="I64" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="J64" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -3576,30 +3076,30 @@
         <v>2251374766</v>
       </c>
       <c r="I65" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="J65" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="G66">
         <v>332513</v>
@@ -3608,27 +3108,27 @@
         <v>8166287598</v>
       </c>
       <c r="I66" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="J66" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="D67" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
@@ -3640,27 +3140,27 @@
         <v>8509162259</v>
       </c>
       <c r="I67" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="J67" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="D68" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -3672,27 +3172,27 @@
         <v>3184004961</v>
       </c>
       <c r="I68" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="J68" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="D69" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -3704,30 +3204,30 @@
         <v>8597183222</v>
       </c>
       <c r="I69" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="J69" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="E70" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="G70">
         <v>369249</v>
@@ -3736,27 +3236,27 @@
         <v>8168874274</v>
       </c>
       <c r="I70" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="J70" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="D71" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -3768,27 +3268,27 @@
         <v>7061169978</v>
       </c>
       <c r="I71" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="J71" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -3800,27 +3300,27 @@
         <v>4155837867</v>
       </c>
       <c r="I72" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="J72" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="D73" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="E73" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
@@ -3832,27 +3332,27 @@
         <v>9152487232</v>
       </c>
       <c r="I73" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="J73" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="E74" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -3864,30 +3364,30 @@
         <v>4076670892</v>
       </c>
       <c r="I74" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="J74" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="D75" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="E75" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="F75" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="G75">
         <v>226927</v>
@@ -3896,30 +3396,30 @@
         <v>3162292032</v>
       </c>
       <c r="I75" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="J75" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="D76" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="F76" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="G76">
         <v>281265</v>
@@ -3928,27 +3428,27 @@
         <v>3169599276</v>
       </c>
       <c r="I76" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="J76" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="D77" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
@@ -3960,30 +3460,30 @@
         <v>4127589982</v>
       </c>
       <c r="I77" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="J77" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="D78" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="E78" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="F78" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="G78">
         <v>693267</v>
@@ -3992,30 +3492,30 @@
         <v>7029244722</v>
       </c>
       <c r="I78" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="J78" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="D79" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="F79" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="G79">
         <v>535047</v>
@@ -4024,27 +3524,27 @@
         <v>6168155826</v>
       </c>
       <c r="I79" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="J79" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="D80" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -4056,27 +3556,27 @@
         <v>5122910242</v>
       </c>
       <c r="I80" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="J80" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="D81" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="E81" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -4088,30 +3588,30 @@
         <v>5129665225</v>
       </c>
       <c r="I81" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="J81" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="D82" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="E82" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="G82">
         <v>865812</v>
@@ -4120,30 +3620,30 @@
         <v>4232551614</v>
       </c>
       <c r="I82" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="J82" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="D83" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="E83" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G83">
         <v>643708</v>
@@ -4152,30 +3652,30 @@
         <v>3309909816</v>
       </c>
       <c r="I83" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="J83" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="D84" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="E84" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="G84">
         <v>107812</v>
@@ -4184,27 +3684,27 @@
         <v>2035568520</v>
       </c>
       <c r="I84" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="J84" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="E85" t="s">
-        <v>437</v>
+        <v>377</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -4216,27 +3716,27 @@
         <v>2145970865</v>
       </c>
       <c r="I85" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="J85" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>441</v>
+        <v>381</v>
       </c>
       <c r="D86" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="E86" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="F86" t="s">
         <v>24</v>
@@ -4248,27 +3748,27 @@
         <v>9198193452</v>
       </c>
       <c r="I86" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="J86" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="D87" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
@@ -4280,27 +3780,27 @@
         <v>7864854559</v>
       </c>
       <c r="I87" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="J87" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="D88" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="E88" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -4312,27 +3812,27 @@
         <v>9156360193</v>
       </c>
       <c r="I88" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="J88" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="D89" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="E89" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -4344,30 +3844,30 @@
         <v>6786056832</v>
       </c>
       <c r="I89" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="J89" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="D90" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="E90" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="G90">
         <v>992355</v>
@@ -4376,30 +3876,30 @@
         <v>2539827235</v>
       </c>
       <c r="I90" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="J90" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="D91" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="E91" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="F91" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="G91">
         <v>982868</v>
@@ -4408,27 +3908,27 @@
         <v>2032984571</v>
       </c>
       <c r="I91" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="J91" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="D92" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="E92" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -4440,27 +3940,27 @@
         <v>7064909878</v>
       </c>
       <c r="I92" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="J92" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="D93" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="E93" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -4472,30 +3972,30 @@
         <v>9167004483</v>
       </c>
       <c r="I93" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="J93" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="D94" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="E94" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="F94" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="G94">
         <v>151676</v>
@@ -4504,30 +4004,30 @@
         <v>5732908143</v>
       </c>
       <c r="I94" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="J94" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="D95" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="E95" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G95">
         <v>270516</v>
@@ -4536,27 +4036,27 @@
         <v>3303509249</v>
       </c>
       <c r="I95" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="J95" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="D96" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="E96" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -4568,27 +4068,27 @@
         <v>7723756514</v>
       </c>
       <c r="I96" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="J96" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="D97" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
@@ -4600,30 +4100,30 @@
         <v>2146070218</v>
       </c>
       <c r="I97" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="J97" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="D98" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="E98" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="F98" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="G98">
         <v>101336</v>
@@ -4632,30 +4132,30 @@
         <v>9182927162</v>
       </c>
       <c r="I98" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="J98" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="D99" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="F99" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="G99">
         <v>193776</v>
@@ -4664,30 +4164,30 @@
         <v>5859901032</v>
       </c>
       <c r="I99" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="J99" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="D100" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="E100" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="F100" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="G100">
         <v>386765</v>
@@ -4696,30 +4196,30 @@
         <v>2409850571</v>
       </c>
       <c r="I100" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="J100" t="s">
-        <v>524</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="D101" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="E101" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="F101" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="G101">
         <v>582513</v>
@@ -4728,10 +4228,10 @@
         <v>3197750056</v>
       </c>
       <c r="I101" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="J101" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Random Customer Info.xlsx
+++ b/Excels/Random Customer Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="449">
   <si>
     <t>name</t>
   </si>
@@ -105,79 +105,10 @@
     <t>Illinois</t>
   </si>
   <si>
-    <t>Sarette</t>
-  </si>
-  <si>
-    <t>09/27/1962</t>
-  </si>
-  <si>
-    <t>77 Kensington Pass</t>
-  </si>
-  <si>
     <t>Fayetteville</t>
   </si>
   <si>
-    <t>smaccaugheno@slideshare.net</t>
-  </si>
-  <si>
-    <t>E8PSsvMhzD</t>
-  </si>
-  <si>
-    <t>Florette</t>
-  </si>
-  <si>
-    <t>04/05/1976</t>
-  </si>
-  <si>
-    <t>0 Ruskin Pass</t>
-  </si>
-  <si>
-    <t>Pocatello</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>fliversedgep@army.mil</t>
-  </si>
-  <si>
-    <t>efOh3DbNSz</t>
-  </si>
-  <si>
-    <t>Malva</t>
-  </si>
-  <si>
-    <t>03/21/1970</t>
-  </si>
-  <si>
-    <t>377 Hoepker Park</t>
-  </si>
-  <si>
     <t>Washington</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>mchingedehalsq@about.me</t>
-  </si>
-  <si>
-    <t>USoD87bJ</t>
-  </si>
-  <si>
-    <t>Karlie</t>
-  </si>
-  <si>
-    <t>05/24/1962</t>
-  </si>
-  <si>
-    <t>9 Anhalt Road</t>
-  </si>
-  <si>
-    <t>kcroisdallr@jugem.jp</t>
-  </si>
-  <si>
-    <t>rybHgeD</t>
   </si>
   <si>
     <t>Barton</t>
@@ -1750,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:J25"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1802,2436 +1733,2308 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>579588</v>
+      </c>
+      <c r="H2">
+        <v>8167322778</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>533566</v>
+      </c>
+      <c r="H3">
+        <v>9722884031</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>717033</v>
+      </c>
+      <c r="H4">
+        <v>2164081982</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>546774</v>
+      </c>
+      <c r="H5">
+        <v>2057730130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>736038</v>
+      </c>
+      <c r="H6">
+        <v>2255137586</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>355613</v>
+      </c>
+      <c r="H7">
+        <v>7138288758</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>394816</v>
+      </c>
+      <c r="H8">
+        <v>9016309404</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>792188</v>
+      </c>
+      <c r="H9">
+        <v>6183810222</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>690428</v>
+      </c>
+      <c r="H10">
+        <v>6194180164</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>931279</v>
+      </c>
+      <c r="H11">
+        <v>5042437472</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>502974</v>
+      </c>
+      <c r="H12">
+        <v>9199821152</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>436053</v>
+      </c>
+      <c r="H13">
+        <v>6518460229</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>923678</v>
+      </c>
+      <c r="H14">
+        <v>9165699739</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>945738</v>
+      </c>
+      <c r="H15">
+        <v>6198538736</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>189439</v>
+      </c>
+      <c r="H16">
+        <v>9522542185</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>957926</v>
+      </c>
+      <c r="H17">
+        <v>9107239635</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18">
+        <v>878395</v>
+      </c>
+      <c r="H18">
+        <v>3015046400</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>152837</v>
+      </c>
+      <c r="H19">
+        <v>8167790127</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20">
+        <v>781306</v>
+      </c>
+      <c r="H20">
+        <v>4437701059</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21">
+        <v>239171</v>
+      </c>
+      <c r="H21">
+        <v>3159081847</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>172951</v>
+      </c>
+      <c r="H22">
+        <v>9542530328</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23">
+        <v>901864</v>
+      </c>
+      <c r="H23">
+        <v>6161346814</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>838597</v>
+      </c>
+      <c r="H24">
+        <v>9031492059</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>409071</v>
+      </c>
+      <c r="H25">
+        <v>5123403535</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>582791</v>
+        <v>186215</v>
       </c>
       <c r="H26">
-        <v>9103890692</v>
+        <v>9167732618</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>418565</v>
+        <v>701107</v>
       </c>
       <c r="H27">
-        <v>2081625100</v>
+        <v>8599195134</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>704438</v>
+        <v>213614</v>
       </c>
       <c r="H28">
-        <v>2021767869</v>
+        <v>7703623998</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="G29">
-        <v>492665</v>
+        <v>849154</v>
       </c>
       <c r="H29">
-        <v>6125467690</v>
+        <v>2129333034</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G30">
-        <v>579588</v>
+        <v>816804</v>
       </c>
       <c r="H30">
-        <v>8167322778</v>
+        <v>5136511672</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>533566</v>
+        <v>562038</v>
       </c>
       <c r="H31">
-        <v>9722884031</v>
+        <v>9049360235</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>717033</v>
+        <v>651953</v>
       </c>
       <c r="H32">
-        <v>2164081982</v>
+        <v>8144865382</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>546774</v>
+        <v>414152</v>
       </c>
       <c r="H33">
-        <v>2057730130</v>
+        <v>7139627564</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>736038</v>
+        <v>402714</v>
       </c>
       <c r="H34">
-        <v>2255137586</v>
+        <v>8062820561</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>355613</v>
+        <v>111555</v>
       </c>
       <c r="H35">
-        <v>7138288758</v>
+        <v>6125129664</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G36">
-        <v>394816</v>
+        <v>567852</v>
       </c>
       <c r="H36">
-        <v>9016309404</v>
+        <v>8186995714</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G37">
-        <v>792188</v>
+        <v>329611</v>
       </c>
       <c r="H37">
-        <v>6183810222</v>
+        <v>2251374766</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G38">
-        <v>690428</v>
+        <v>332513</v>
       </c>
       <c r="H38">
-        <v>6194180164</v>
+        <v>8166287598</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G39">
-        <v>931279</v>
+        <v>836583</v>
       </c>
       <c r="H39">
-        <v>5042437472</v>
+        <v>8509162259</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>502974</v>
+        <v>328313</v>
       </c>
       <c r="H40">
-        <v>9199821152</v>
+        <v>3184004961</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="J40" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>436053</v>
+        <v>162475</v>
       </c>
       <c r="H41">
-        <v>6518460229</v>
+        <v>8597183222</v>
       </c>
       <c r="I41" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G42">
-        <v>923678</v>
+        <v>369249</v>
       </c>
       <c r="H42">
-        <v>9165699739</v>
+        <v>8168874274</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G43">
-        <v>945738</v>
+        <v>596281</v>
       </c>
       <c r="H43">
-        <v>6198538736</v>
+        <v>7061169978</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>189439</v>
+        <v>196674</v>
       </c>
       <c r="H44">
-        <v>9522542185</v>
+        <v>4155837867</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="J44" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G45">
-        <v>957926</v>
+        <v>908339</v>
       </c>
       <c r="H45">
-        <v>9107239635</v>
+        <v>9152487232</v>
       </c>
       <c r="I45" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="J45" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>878395</v>
+        <v>490944</v>
       </c>
       <c r="H46">
-        <v>3015046400</v>
+        <v>4076670892</v>
       </c>
       <c r="I46" t="s">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="J46" t="s">
-        <v>154</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="G47">
-        <v>152837</v>
+        <v>226927</v>
       </c>
       <c r="H47">
-        <v>8167790127</v>
+        <v>3162292032</v>
       </c>
       <c r="I47" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="J47" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="G48">
-        <v>781306</v>
+        <v>281265</v>
       </c>
       <c r="H48">
-        <v>4437701059</v>
+        <v>3169599276</v>
       </c>
       <c r="I48" t="s">
-        <v>165</v>
+        <v>302</v>
       </c>
       <c r="J48" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>239171</v>
+        <v>609541</v>
       </c>
       <c r="H49">
-        <v>3159081847</v>
+        <v>4127589982</v>
       </c>
       <c r="I49" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="J49" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>311</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="G50">
-        <v>172951</v>
+        <v>693267</v>
       </c>
       <c r="H50">
-        <v>9542530328</v>
+        <v>7029244722</v>
       </c>
       <c r="I50" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="J50" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>318</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F51" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G51">
-        <v>901864</v>
+        <v>535047</v>
       </c>
       <c r="H51">
-        <v>6161346814</v>
+        <v>6168155826</v>
       </c>
       <c r="I51" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
       <c r="J51" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>323</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52">
-        <v>838597</v>
+        <v>522779</v>
       </c>
       <c r="H52">
-        <v>9031492059</v>
+        <v>5122910242</v>
       </c>
       <c r="I52" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="J52" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53">
-        <v>409071</v>
+        <v>594528</v>
       </c>
       <c r="H53">
-        <v>5123403535</v>
+        <v>5129665225</v>
       </c>
       <c r="I53" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="J53" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>335</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G54">
-        <v>186215</v>
+        <v>865812</v>
       </c>
       <c r="H54">
-        <v>9167732618</v>
+        <v>4232551614</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>336</v>
       </c>
       <c r="J54" t="s">
-        <v>202</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>341</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G55">
-        <v>701107</v>
+        <v>643708</v>
       </c>
       <c r="H55">
-        <v>8599195134</v>
+        <v>3309909816</v>
       </c>
       <c r="I55" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="J55" t="s">
-        <v>207</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="E56" t="s">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="G56">
-        <v>213614</v>
+        <v>107812</v>
       </c>
       <c r="H56">
-        <v>7703623998</v>
+        <v>2035568520</v>
       </c>
       <c r="I56" t="s">
-        <v>212</v>
+        <v>349</v>
       </c>
       <c r="J56" t="s">
-        <v>213</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="G57">
-        <v>849154</v>
+        <v>909749</v>
       </c>
       <c r="H57">
-        <v>2129333034</v>
+        <v>2145970865</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>355</v>
       </c>
       <c r="J57" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>357</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>358</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>360</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="G58">
-        <v>816804</v>
+        <v>216821</v>
       </c>
       <c r="H58">
-        <v>5136511672</v>
+        <v>9198193452</v>
       </c>
       <c r="I58" t="s">
-        <v>224</v>
+        <v>361</v>
       </c>
       <c r="J58" t="s">
-        <v>225</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>364</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59">
-        <v>562038</v>
+        <v>706269</v>
       </c>
       <c r="H59">
-        <v>9049360235</v>
+        <v>7864854559</v>
       </c>
       <c r="I59" t="s">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="J59" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>369</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="E60" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>651953</v>
+        <v>675696</v>
       </c>
       <c r="H60">
-        <v>8144865382</v>
+        <v>9156360193</v>
       </c>
       <c r="I60" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="J60" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>374</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61">
-        <v>414152</v>
+        <v>762149</v>
       </c>
       <c r="H61">
-        <v>7139627564</v>
+        <v>6786056832</v>
       </c>
       <c r="I61" t="s">
-        <v>241</v>
+        <v>376</v>
       </c>
       <c r="J61" t="s">
-        <v>242</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>381</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G62">
-        <v>402714</v>
+        <v>992355</v>
       </c>
       <c r="H62">
-        <v>8062820561</v>
+        <v>2539827235</v>
       </c>
       <c r="I62" t="s">
-        <v>247</v>
+        <v>382</v>
       </c>
       <c r="J62" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>387</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="G63">
-        <v>111555</v>
+        <v>982868</v>
       </c>
       <c r="H63">
-        <v>6125129664</v>
+        <v>2032984571</v>
       </c>
       <c r="I63" t="s">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="J63" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>390</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="E64" t="s">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G64">
-        <v>567852</v>
+        <v>494810</v>
       </c>
       <c r="H64">
-        <v>8186995714</v>
+        <v>7064909878</v>
       </c>
       <c r="I64" t="s">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="J64" t="s">
-        <v>258</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>397</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G65">
-        <v>329611</v>
+        <v>720361</v>
       </c>
       <c r="H65">
-        <v>2251374766</v>
+        <v>9167004483</v>
       </c>
       <c r="I65" t="s">
-        <v>262</v>
+        <v>399</v>
       </c>
       <c r="J65" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
-        <v>266</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
-        <v>56</v>
+        <v>404</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G66">
-        <v>332513</v>
+        <v>151676</v>
       </c>
       <c r="H66">
-        <v>8166287598</v>
+        <v>5732908143</v>
       </c>
       <c r="I66" t="s">
-        <v>267</v>
+        <v>405</v>
       </c>
       <c r="J66" t="s">
-        <v>268</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>408</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>409</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G67">
-        <v>836583</v>
+        <v>270516</v>
       </c>
       <c r="H67">
-        <v>8509162259</v>
+        <v>3303509249</v>
       </c>
       <c r="I67" t="s">
-        <v>273</v>
+        <v>411</v>
       </c>
       <c r="J67" t="s">
-        <v>274</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>275</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G68">
-        <v>328313</v>
+        <v>218006</v>
       </c>
       <c r="H68">
-        <v>3184004961</v>
+        <v>7723756514</v>
       </c>
       <c r="I68" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
       <c r="J68" t="s">
-        <v>280</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>420</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>421</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G69">
-        <v>162475</v>
+        <v>873242</v>
       </c>
       <c r="H69">
-        <v>8597183222</v>
+        <v>2146070218</v>
       </c>
       <c r="I69" t="s">
-        <v>284</v>
+        <v>422</v>
       </c>
       <c r="J69" t="s">
-        <v>285</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>425</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>426</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>428</v>
       </c>
       <c r="G70">
-        <v>369249</v>
+        <v>101336</v>
       </c>
       <c r="H70">
-        <v>8168874274</v>
+        <v>9182927162</v>
       </c>
       <c r="I70" t="s">
-        <v>289</v>
+        <v>429</v>
       </c>
       <c r="J70" t="s">
-        <v>290</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>292</v>
+        <v>432</v>
       </c>
       <c r="D71" t="s">
-        <v>293</v>
+        <v>433</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="G71">
-        <v>596281</v>
+        <v>193776</v>
       </c>
       <c r="H71">
-        <v>7061169978</v>
+        <v>5859901032</v>
       </c>
       <c r="I71" t="s">
-        <v>295</v>
+        <v>434</v>
       </c>
       <c r="J71" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>438</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="G72">
-        <v>196674</v>
+        <v>386765</v>
       </c>
       <c r="H72">
-        <v>4155837867</v>
+        <v>2409850571</v>
       </c>
       <c r="I72" t="s">
-        <v>301</v>
+        <v>440</v>
       </c>
       <c r="J72" t="s">
-        <v>302</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>303</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>304</v>
+        <v>443</v>
       </c>
       <c r="D73" t="s">
-        <v>305</v>
+        <v>444</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>446</v>
       </c>
       <c r="G73">
-        <v>908339</v>
+        <v>582513</v>
       </c>
       <c r="H73">
-        <v>9152487232</v>
+        <v>3197750056</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
+        <v>447</v>
       </c>
       <c r="J73" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>309</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" t="s">
-        <v>311</v>
-      </c>
-      <c r="E74" t="s">
-        <v>312</v>
-      </c>
-      <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74">
-        <v>490944</v>
-      </c>
-      <c r="H74">
-        <v>4076670892</v>
-      </c>
-      <c r="I74" t="s">
-        <v>313</v>
-      </c>
-      <c r="J74" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>315</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" t="s">
-        <v>316</v>
-      </c>
-      <c r="D75" t="s">
-        <v>317</v>
-      </c>
-      <c r="E75" t="s">
-        <v>318</v>
-      </c>
-      <c r="F75" t="s">
-        <v>319</v>
-      </c>
-      <c r="G75">
-        <v>226927</v>
-      </c>
-      <c r="H75">
-        <v>3162292032</v>
-      </c>
-      <c r="I75" t="s">
-        <v>320</v>
-      </c>
-      <c r="J75" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>322</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
-        <v>323</v>
-      </c>
-      <c r="D76" t="s">
-        <v>324</v>
-      </c>
-      <c r="E76" t="s">
-        <v>318</v>
-      </c>
-      <c r="F76" t="s">
-        <v>319</v>
-      </c>
-      <c r="G76">
-        <v>281265</v>
-      </c>
-      <c r="H76">
-        <v>3169599276</v>
-      </c>
-      <c r="I76" t="s">
-        <v>325</v>
-      </c>
-      <c r="J76" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>327</v>
-      </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>328</v>
-      </c>
-      <c r="D77" t="s">
-        <v>329</v>
-      </c>
-      <c r="E77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77">
-        <v>609541</v>
-      </c>
-      <c r="H77">
-        <v>4127589982</v>
-      </c>
-      <c r="I77" t="s">
-        <v>331</v>
-      </c>
-      <c r="J77" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>333</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>334</v>
-      </c>
-      <c r="D78" t="s">
-        <v>335</v>
-      </c>
-      <c r="E78" t="s">
-        <v>336</v>
-      </c>
-      <c r="F78" t="s">
-        <v>337</v>
-      </c>
-      <c r="G78">
-        <v>693267</v>
-      </c>
-      <c r="H78">
-        <v>7029244722</v>
-      </c>
-      <c r="I78" t="s">
-        <v>338</v>
-      </c>
-      <c r="J78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>340</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" t="s">
-        <v>342</v>
-      </c>
-      <c r="E79" t="s">
-        <v>182</v>
-      </c>
-      <c r="F79" t="s">
-        <v>183</v>
-      </c>
-      <c r="G79">
-        <v>535047</v>
-      </c>
-      <c r="H79">
-        <v>6168155826</v>
-      </c>
-      <c r="I79" t="s">
-        <v>343</v>
-      </c>
-      <c r="J79" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>345</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>346</v>
-      </c>
-      <c r="D80" t="s">
-        <v>347</v>
-      </c>
-      <c r="E80" t="s">
-        <v>195</v>
-      </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80">
-        <v>522779</v>
-      </c>
-      <c r="H80">
-        <v>5122910242</v>
-      </c>
-      <c r="I80" t="s">
-        <v>348</v>
-      </c>
-      <c r="J80" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>350</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>351</v>
-      </c>
-      <c r="D81" t="s">
-        <v>352</v>
-      </c>
-      <c r="E81" t="s">
-        <v>195</v>
-      </c>
-      <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81">
-        <v>594528</v>
-      </c>
-      <c r="H81">
-        <v>5129665225</v>
-      </c>
-      <c r="I81" t="s">
-        <v>353</v>
-      </c>
-      <c r="J81" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>355</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" t="s">
-        <v>356</v>
-      </c>
-      <c r="D82" t="s">
-        <v>357</v>
-      </c>
-      <c r="E82" t="s">
-        <v>358</v>
-      </c>
-      <c r="F82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82">
-        <v>865812</v>
-      </c>
-      <c r="H82">
-        <v>4232551614</v>
-      </c>
-      <c r="I82" t="s">
-        <v>359</v>
-      </c>
-      <c r="J82" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>361</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>362</v>
-      </c>
-      <c r="D83" t="s">
-        <v>363</v>
-      </c>
-      <c r="E83" t="s">
-        <v>364</v>
-      </c>
-      <c r="F83" t="s">
-        <v>70</v>
-      </c>
-      <c r="G83">
-        <v>643708</v>
-      </c>
-      <c r="H83">
-        <v>3309909816</v>
-      </c>
-      <c r="I83" t="s">
-        <v>365</v>
-      </c>
-      <c r="J83" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>367</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="s">
-        <v>368</v>
-      </c>
-      <c r="D84" t="s">
-        <v>369</v>
-      </c>
-      <c r="E84" t="s">
-        <v>370</v>
-      </c>
-      <c r="F84" t="s">
-        <v>371</v>
-      </c>
-      <c r="G84">
-        <v>107812</v>
-      </c>
-      <c r="H84">
-        <v>2035568520</v>
-      </c>
-      <c r="I84" t="s">
-        <v>372</v>
-      </c>
-      <c r="J84" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>374</v>
-      </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>375</v>
-      </c>
-      <c r="D85" t="s">
-        <v>376</v>
-      </c>
-      <c r="E85" t="s">
-        <v>377</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85">
-        <v>909749</v>
-      </c>
-      <c r="H85">
-        <v>2145970865</v>
-      </c>
-      <c r="I85" t="s">
-        <v>378</v>
-      </c>
-      <c r="J85" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>380</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>381</v>
-      </c>
-      <c r="D86" t="s">
-        <v>382</v>
-      </c>
-      <c r="E86" t="s">
-        <v>383</v>
-      </c>
-      <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86">
-        <v>216821</v>
-      </c>
-      <c r="H86">
-        <v>9198193452</v>
-      </c>
-      <c r="I86" t="s">
-        <v>384</v>
-      </c>
-      <c r="J86" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>386</v>
-      </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>387</v>
-      </c>
-      <c r="D87" t="s">
-        <v>388</v>
-      </c>
-      <c r="E87" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87">
-        <v>706269</v>
-      </c>
-      <c r="H87">
-        <v>7864854559</v>
-      </c>
-      <c r="I87" t="s">
-        <v>389</v>
-      </c>
-      <c r="J87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>391</v>
-      </c>
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="s">
-        <v>392</v>
-      </c>
-      <c r="D88" t="s">
-        <v>393</v>
-      </c>
-      <c r="E88" t="s">
-        <v>306</v>
-      </c>
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88">
-        <v>675696</v>
-      </c>
-      <c r="H88">
-        <v>9156360193</v>
-      </c>
-      <c r="I88" t="s">
-        <v>394</v>
-      </c>
-      <c r="J88" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>396</v>
-      </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>397</v>
-      </c>
-      <c r="D89" t="s">
-        <v>398</v>
-      </c>
-      <c r="E89" t="s">
-        <v>211</v>
-      </c>
-      <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89">
-        <v>762149</v>
-      </c>
-      <c r="H89">
-        <v>6786056832</v>
-      </c>
-      <c r="I89" t="s">
-        <v>399</v>
-      </c>
-      <c r="J89" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>401</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>402</v>
-      </c>
-      <c r="D90" t="s">
-        <v>403</v>
-      </c>
-      <c r="E90" t="s">
-        <v>404</v>
-      </c>
-      <c r="F90" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90">
-        <v>992355</v>
-      </c>
-      <c r="H90">
-        <v>2539827235</v>
-      </c>
-      <c r="I90" t="s">
-        <v>405</v>
-      </c>
-      <c r="J90" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>407</v>
-      </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>408</v>
-      </c>
-      <c r="D91" t="s">
-        <v>409</v>
-      </c>
-      <c r="E91" t="s">
-        <v>410</v>
-      </c>
-      <c r="F91" t="s">
-        <v>371</v>
-      </c>
-      <c r="G91">
-        <v>982868</v>
-      </c>
-      <c r="H91">
-        <v>2032984571</v>
-      </c>
-      <c r="I91" t="s">
-        <v>411</v>
-      </c>
-      <c r="J91" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>413</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>414</v>
-      </c>
-      <c r="D92" t="s">
-        <v>415</v>
-      </c>
-      <c r="E92" t="s">
-        <v>416</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92">
-        <v>494810</v>
-      </c>
-      <c r="H92">
-        <v>7064909878</v>
-      </c>
-      <c r="I92" t="s">
-        <v>417</v>
-      </c>
-      <c r="J92" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>419</v>
-      </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>420</v>
-      </c>
-      <c r="D93" t="s">
-        <v>421</v>
-      </c>
-      <c r="E93" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93">
-        <v>720361</v>
-      </c>
-      <c r="H93">
-        <v>9167004483</v>
-      </c>
-      <c r="I93" t="s">
-        <v>422</v>
-      </c>
-      <c r="J93" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>424</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="s">
-        <v>425</v>
-      </c>
-      <c r="D94" t="s">
-        <v>426</v>
-      </c>
-      <c r="E94" t="s">
-        <v>427</v>
-      </c>
-      <c r="F94" t="s">
-        <v>57</v>
-      </c>
-      <c r="G94">
-        <v>151676</v>
-      </c>
-      <c r="H94">
-        <v>5732908143</v>
-      </c>
-      <c r="I94" t="s">
-        <v>428</v>
-      </c>
-      <c r="J94" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>430</v>
-      </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>431</v>
-      </c>
-      <c r="D95" t="s">
-        <v>432</v>
-      </c>
-      <c r="E95" t="s">
-        <v>433</v>
-      </c>
-      <c r="F95" t="s">
-        <v>70</v>
-      </c>
-      <c r="G95">
-        <v>270516</v>
-      </c>
-      <c r="H95">
-        <v>3303509249</v>
-      </c>
-      <c r="I95" t="s">
-        <v>434</v>
-      </c>
-      <c r="J95" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>436</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>437</v>
-      </c>
-      <c r="D96" t="s">
-        <v>438</v>
-      </c>
-      <c r="E96" t="s">
-        <v>439</v>
-      </c>
-      <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96">
-        <v>218006</v>
-      </c>
-      <c r="H96">
-        <v>7723756514</v>
-      </c>
-      <c r="I96" t="s">
-        <v>440</v>
-      </c>
-      <c r="J96" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>442</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>443</v>
-      </c>
-      <c r="D97" t="s">
-        <v>444</v>
-      </c>
-      <c r="E97" t="s">
-        <v>63</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97">
-        <v>873242</v>
-      </c>
-      <c r="H97">
-        <v>2146070218</v>
-      </c>
-      <c r="I97" t="s">
-        <v>445</v>
-      </c>
-      <c r="J97" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>447</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
         <v>448</v>
-      </c>
-      <c r="D98" t="s">
-        <v>449</v>
-      </c>
-      <c r="E98" t="s">
-        <v>450</v>
-      </c>
-      <c r="F98" t="s">
-        <v>451</v>
-      </c>
-      <c r="G98">
-        <v>101336</v>
-      </c>
-      <c r="H98">
-        <v>9182927162</v>
-      </c>
-      <c r="I98" t="s">
-        <v>452</v>
-      </c>
-      <c r="J98" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>454</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>455</v>
-      </c>
-      <c r="D99" t="s">
-        <v>456</v>
-      </c>
-      <c r="E99" t="s">
-        <v>170</v>
-      </c>
-      <c r="F99" t="s">
-        <v>171</v>
-      </c>
-      <c r="G99">
-        <v>193776</v>
-      </c>
-      <c r="H99">
-        <v>5859901032</v>
-      </c>
-      <c r="I99" t="s">
-        <v>457</v>
-      </c>
-      <c r="J99" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>459</v>
-      </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>460</v>
-      </c>
-      <c r="D100" t="s">
-        <v>461</v>
-      </c>
-      <c r="E100" t="s">
-        <v>462</v>
-      </c>
-      <c r="F100" t="s">
-        <v>152</v>
-      </c>
-      <c r="G100">
-        <v>386765</v>
-      </c>
-      <c r="H100">
-        <v>2409850571</v>
-      </c>
-      <c r="I100" t="s">
-        <v>463</v>
-      </c>
-      <c r="J100" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>465</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>466</v>
-      </c>
-      <c r="D101" t="s">
-        <v>467</v>
-      </c>
-      <c r="E101" t="s">
-        <v>468</v>
-      </c>
-      <c r="F101" t="s">
-        <v>469</v>
-      </c>
-      <c r="G101">
-        <v>582513</v>
-      </c>
-      <c r="H101">
-        <v>3197750056</v>
-      </c>
-      <c r="I101" t="s">
-        <v>470</v>
-      </c>
-      <c r="J101" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
